--- a/model-data/gen_technology.xlsx
+++ b/model-data/gen_technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf5eff0e82977d5/Documents/Uni-DESKTOP-D41IPJ3/Internship Aalto/EnergyModel/model-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1528" documentId="8_{79DA86DC-E3D6-4AFA-91C5-4D49669F33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD03268C-17CA-47D8-ACA3-CE3462943668}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75CE73-293B-4717-8FC1-C0CA5286E6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2745" windowWidth="29790" windowHeight="15240" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="4" activeTab="9" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technology" sheetId="12" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="113">
   <si>
     <t>fuel_cost [€/MWh fuel]</t>
   </si>
@@ -388,9 +388,6 @@
     <t>state_coeff</t>
   </si>
   <si>
-    <t>Plant Capacity 2020 [MW]</t>
-  </si>
-  <si>
     <t>Storage Capacity [MWh]</t>
   </si>
   <si>
@@ -425,6 +422,12 @@
   </si>
   <si>
     <t>unit_investment_variable_type_integer</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>Base</t>
   </si>
 </sst>
 </file>
@@ -519,11 +522,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
-    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,12 +840,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C5AD4-B9F7-457E-A2EB-81E88EC6E11A}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S22" sqref="S22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -867,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>86</v>
@@ -906,22 +909,22 @@
         <v>93</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -986,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1051,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1177,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1423,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1747,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1934,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2000,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2153,6 +2156,17 @@
         <f>D21*1000/8760</f>
         <v>2.2831050228310503</v>
       </c>
+      <c r="F21" s="3">
+        <f>OM_cost!C8</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f>efficiency!E9/100</f>
+        <v>0.9</v>
+      </c>
       <c r="I21" s="3">
         <v>0.02</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2195,30 +2209,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDC39-4BF9-4176-96D9-6E49B264B29A}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2246,37 +2259,37 @@
       <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="str" cm="1">
-        <f t="array" ref="J1:M1">gen_technology!B1:E1</f>
+      <c r="I1" t="str" cm="1">
+        <f t="array" ref="I1:L1">gen_technology!B1:E1</f>
         <v>capital_cost 2020 [€/kW]</v>
       </c>
+      <c r="J1" t="str">
+        <v>capital_cost 2020 [€/MW]</v>
+      </c>
       <c r="K1" t="str">
-        <v>capital_cost 2020 [€/MW]</v>
+        <v>fixedOM 2010 [€/kW/year]</v>
       </c>
       <c r="L1" t="str">
-        <v>fixedOM 2010 [€/kW/year]</v>
-      </c>
-      <c r="M1" t="str">
         <v>fixedOM 2010 [€/MW/hour]</v>
       </c>
-      <c r="N1" t="str" cm="1">
-        <f t="array" ref="N1:R1">gen_technology!I1:M1</f>
+      <c r="M1" t="str" cm="1">
+        <f t="array" ref="M1:Q1">gen_technology!I1:M1</f>
         <v>emissions [CO2 tons / MWh of fuel]</v>
       </c>
+      <c r="N1" t="str">
+        <v>lifetime [years]</v>
+      </c>
       <c r="O1" t="str">
-        <v>lifetime [years]</v>
+        <v>lifetime [hours]</v>
       </c>
       <c r="P1" t="str">
-        <v>lifetime [hours]</v>
+        <v>ramp_down_limit</v>
       </c>
       <c r="Q1" t="str">
-        <v>ramp_down_limit</v>
-      </c>
-      <c r="R1" t="str">
         <v>ramp_up_limit</v>
+      </c>
+      <c r="R1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2298,45 +2311,45 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>28185</v>
+        <v>87000000</v>
       </c>
       <c r="G2">
-        <v>87000000</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2:M2">gen_technology!B21:E21</f>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:L2">gen_technology!B21:E21</f>
         <v>2000</v>
       </c>
+      <c r="J2">
+        <v>2000000</v>
+      </c>
       <c r="K2">
-        <v>2000000</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
         <v>2.2831050228310503</v>
       </c>
-      <c r="N2" cm="1">
-        <f t="array" ref="N2:R2">gen_technology!I21:M21</f>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:Q2">gen_technology!I21:M21</f>
         <v>0.02</v>
       </c>
-      <c r="O2">
+      <c r="N2">
         <v>80</v>
       </c>
-      <c r="P2" t="str">
+      <c r="O2" t="str">
         <v>700800h</v>
       </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>1</v>
+      <c r="R2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2358,46 +2371,52 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>16318</v>
+        <v>33600000</v>
       </c>
       <c r="G3">
-        <v>33600000</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="J3" cm="1">
-        <f t="array" ref="J3:M3">gen_technology!B21:E21</f>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3:L3">gen_technology!B21:E21</f>
         <v>2000</v>
       </c>
+      <c r="J3">
+        <v>2000000</v>
+      </c>
       <c r="K3">
-        <v>2000000</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
         <v>2.2831050228310503</v>
       </c>
-      <c r="N3" cm="1">
-        <f t="array" ref="N3:R3">gen_technology!I21:M21</f>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3:Q3">gen_technology!I21:M21</f>
         <v>0.02</v>
       </c>
-      <c r="O3">
+      <c r="N3">
         <v>80</v>
       </c>
-      <c r="P3" t="str">
+      <c r="O3" t="str">
         <v>700800h</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
+      <c r="R3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2412,7 +2431,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -2427,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,7 +2522,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
@@ -3432,7 +3451,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
@@ -3817,10 +3836,10 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
@@ -4786,10 +4805,10 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
@@ -6085,7 +6104,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
@@ -7391,7 +7410,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
@@ -8697,7 +8716,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
@@ -10001,10 +10020,10 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
@@ -10018,7 +10037,7 @@
     <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>

--- a/model-data/gen_technology.xlsx
+++ b/model-data/gen_technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CABA16-3E59-4BD6-B846-95824583853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5674048-A442-4DAA-AAF5-3D730CD2536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technology" sheetId="12" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C5AD4-B9F7-457E-A2EB-81E88EC6E11A}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDC39-4BF9-4176-96D9-6E49B264B29A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,8 +2791,8 @@
         <v>93</v>
       </c>
       <c r="E2" s="3">
-        <f>F2/3</f>
-        <v>29000000</v>
+        <f>F2/100</f>
+        <v>870000</v>
       </c>
       <c r="F2">
         <v>87000000</v>
@@ -2853,8 +2853,8 @@
         <v>93</v>
       </c>
       <c r="E3" s="3">
-        <f>F3/3</f>
-        <v>11200000</v>
+        <f>F3/100</f>
+        <v>336000</v>
       </c>
       <c r="F3">
         <v>33600000</v>

--- a/model-data/gen_technology.xlsx
+++ b/model-data/gen_technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5674048-A442-4DAA-AAF5-3D730CD2536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0F5193-1348-495A-B267-3773653452F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technology" sheetId="12" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="146">
   <si>
     <t>fuel_cost [€/MWh fuel]</t>
   </si>
@@ -632,6 +632,27 @@
   </si>
   <si>
     <t>IPCC 2006 default</t>
+  </si>
+  <si>
+    <t>Schröder 2013</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P35-36</t>
+  </si>
+  <si>
+    <t>P46 (RET 2013)</t>
+  </si>
+  <si>
+    <t>Fuel cost in 2010 EUR/MWh</t>
+  </si>
+  <si>
+    <t>P50</t>
   </si>
 </sst>
 </file>
@@ -1074,9 +1095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C5AD4-B9F7-457E-A2EB-81E88EC6E11A}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,15 +1192,15 @@
       </c>
       <c r="D2" s="3">
         <f>OM_cost!D6</f>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E2" s="6">
         <f>D2*1000/8760</f>
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="F2" s="3">
         <f>OM_cost!C6</f>
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="G2" s="3">
         <v>31</v>
@@ -1297,15 +1318,15 @@
       </c>
       <c r="D4" s="3">
         <f>D5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="2"/>
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="F4" s="3">
         <f>F5</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <f>G5</f>
@@ -1358,14 +1379,14 @@
         <v>800000</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>23.2</v>
@@ -1665,7 +1686,7 @@
       </c>
       <c r="F10" s="3">
         <f>OM_cost!C7</f>
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" s="3">
         <f>efficiency!E7/100</f>
@@ -1876,10 +1897,11 @@
       </c>
       <c r="F14" s="3">
         <f>OM_cost!C11</f>
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <f>OM_cost!E11</f>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <f>efficiency!E11/100</f>
@@ -2091,15 +2113,15 @@
       </c>
       <c r="D18" s="3">
         <f>D2</f>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
-        <v>11.415525114155251</v>
+        <f>D18*1000/8760</f>
+        <v>15.981735159817351</v>
       </c>
       <c r="F18" s="3">
         <f>F2</f>
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2329,7 +2351,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C47" si="4">F2+D28</f>
-        <v>67.53812636165577</v>
+        <v>78.838126361655767</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D47" si="5">1/H2*G2</f>
@@ -2365,7 +2387,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="5"/>
@@ -2383,7 +2405,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="5"/>
@@ -2473,7 +2495,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="5"/>
@@ -2545,11 +2567,11 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" si="4"/>
-        <v>40.030030030030034</v>
+        <v>19.315015015015017</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="5"/>
-        <v>30.030030030030034</v>
+        <v>15.015015015015017</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="3"/>
@@ -2617,7 +2639,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="5"/>
@@ -2694,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDC39-4BF9-4176-96D9-6E49B264B29A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3952,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C821A08-5668-47F2-9931-2581EF34C7E3}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,11 +3986,12 @@
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>133</v>
@@ -3976,14 +3999,20 @@
       <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3997,7 +4026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4011,7 +4040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4025,7 +4054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4039,7 +4068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4047,13 +4076,16 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4061,13 +4093,16 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="D7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4095,7 +4130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4144,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -4117,13 +4152,19 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4137,7 +4178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -4152,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4166,7 +4207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4195,7 +4236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -4210,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -4223,8 +4264,11 @@
       <c r="D18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -4239,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -4253,7 +4297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -4268,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -4325,7 +4369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -4342,8 +4386,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{8A305B0C-3DB4-45A4-A5BB-90CD33793571}"/>
-    <hyperlink ref="F1" r:id="rId2" xr:uid="{42AAF48A-B6A6-4845-98DE-28B3104C9116}"/>
-    <hyperlink ref="H1" r:id="rId3" xr:uid="{83C36461-586E-46A7-AA9D-F270832FC59E}"/>
+    <hyperlink ref="G1" r:id="rId2" xr:uid="{42AAF48A-B6A6-4845-98DE-28B3104C9116}"/>
+    <hyperlink ref="I1" r:id="rId3" xr:uid="{83C36461-586E-46A7-AA9D-F270832FC59E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5437,13 +5481,13 @@
         <v>2350000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F2">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -5557,13 +5601,13 @@
         <v>800000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>23.2</v>
@@ -5617,13 +5661,13 @@
         <v>800000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>23.2</v>
@@ -5923,7 +5967,7 @@
         <v>9.1324200913242013</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" t="str">
         <v/>
@@ -6164,10 +6208,10 @@
         <v>13.698630136986301</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0.33299999999999996</v>
@@ -6398,13 +6442,13 @@
         <v>2350000</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -6750,13 +6794,13 @@
         <v>2350000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H2" s="3">
         <v>31</v>
@@ -6870,13 +6914,13 @@
         <v>800000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>23.2</v>
@@ -6930,13 +6974,13 @@
         <v>800000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>23.2</v>
@@ -7236,7 +7280,7 @@
         <v>9.1324200913242013</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" s="3" t="str">
         <v/>
@@ -7476,10 +7520,10 @@
         <v>13.698630136986301</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0.33299999999999996</v>
@@ -7710,13 +7754,13 @@
         <v>2350000</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F18" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -7996,13 +8040,13 @@
         <v>2350000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H2" s="3">
         <v>31</v>
@@ -8116,13 +8160,13 @@
         <v>800000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>23.2</v>
@@ -8176,13 +8220,13 @@
         <v>800000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>23.2</v>
@@ -8482,7 +8526,7 @@
         <v>9.1324200913242013</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" s="3" t="str">
         <v/>
@@ -8722,10 +8766,10 @@
         <v>13.698630136986301</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0.33299999999999996</v>
@@ -8956,13 +9000,13 @@
         <v>2350000</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F18" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -9242,13 +9286,13 @@
         <v>2350000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H2" s="3">
         <v>31</v>
@@ -9362,13 +9406,13 @@
         <v>800000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>23.2</v>
@@ -9422,13 +9466,13 @@
         <v>800000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>23.2</v>
@@ -9728,7 +9772,7 @@
         <v>9.1324200913242013</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" s="3" t="str">
         <v/>
@@ -9968,10 +10012,10 @@
         <v>13.698630136986301</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0.33299999999999996</v>
@@ -10202,13 +10246,13 @@
         <v>2350000</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F18" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -11245,13 +11289,13 @@
         <v>2350000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H2" s="3">
         <v>31</v>
@@ -11365,13 +11409,13 @@
         <v>800000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>23.2</v>
@@ -11425,13 +11469,13 @@
         <v>800000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>1.1415525114155252</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>23.2</v>
@@ -11731,7 +11775,7 @@
         <v>9.1324200913242013</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H10" s="3" t="str">
         <v/>
@@ -11971,10 +12015,10 @@
         <v>13.698630136986301</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0.33299999999999996</v>
@@ -12205,13 +12249,13 @@
         <v>2350000</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F18" s="3">
-        <v>11.415525114155251</v>
+        <v>15.981735159817351</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
